--- a/node.js.xlsx
+++ b/node.js.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="npm 基本指令" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="文件读写" sheetId="4" r:id="rId4"/>
     <sheet name="标准库" sheetId="5" r:id="rId5"/>
     <sheet name="koa2" sheetId="6" r:id="rId6"/>
+    <sheet name="模板引擎" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1992,13 +1993,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2013,8 +2014,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="171450" y="114300"/>
-          <a:ext cx="7743825" cy="6610350"/>
+          <a:off x="171450" y="114299"/>
+          <a:ext cx="7743825" cy="7705725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2314,8 +2315,199 @@
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>中间件</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
               <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>require('koa');</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>require('koa-router')();</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>// </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>解析</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>body</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>请求；</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>require('koa-bodyparser');</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>解析</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>body </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>中 字段；</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
@@ -2323,170 +2515,58 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>库</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>：</a:t>
-          </a:r>
+            <a:t>相关依赖：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>require('koa');</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>require('koa-router')();</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>// </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>解析</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>body</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>请求；</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>require('koa-bodyparser');</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>获取</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>body </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>中 字段；</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>"koa": "2.0.0",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> "koa-bodyparser": "3.2.0", </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>"koa-router": "7.0.0", </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>"nunjucks": "2.4.2",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> "mime": "1.3.4", </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>"mz": "2.4.0"</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
       </xdr:txBody>
@@ -2495,16 +2575,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2519,7 +2599,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8258175" y="228600"/>
+          <a:off x="8020050" y="114300"/>
           <a:ext cx="5715000" cy="6515100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2753,6 +2833,154 @@
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82609382-CDF0-4782-9E4D-F9831DCA08DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="180975"/>
+          <a:ext cx="5800725" cy="6667500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>nunjucks   //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>模板引擎</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>noCache: false    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>该模式下模板会缓存在内存中；无法实时修改模板；但不会影响性能</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>模板语言：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>{% for f in fruites%}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;li&gt;f&lt;/li&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>{% endfor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>%}</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3092,7 +3320,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3107,7 +3335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930D6937-40D2-445C-9E11-585D74709947}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
@@ -3118,4 +3346,21 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C79AA9A-767F-4C28-86B3-070D0AB695F0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/node.js.xlsx
+++ b/node.js.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="npm 基本指令" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,9 @@
     <sheet name="标准库" sheetId="5" r:id="rId5"/>
     <sheet name="koa2" sheetId="6" r:id="rId6"/>
     <sheet name="模板引擎" sheetId="7" r:id="rId7"/>
+    <sheet name="async" sheetId="9" r:id="rId8"/>
+    <sheet name="数据库操作" sheetId="8" r:id="rId9"/>
+    <sheet name="测试" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -380,6 +383,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{366E227C-789B-4550-B632-300DBA142DD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104775" y="228600"/>
+          <a:ext cx="8162925" cy="6810375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>assert.strictEqual(obj, result);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>// assert </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>模块的缺点是如果有一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>assert</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>报错，后面将无法执行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -486,6 +582,714 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>fs = require('fs');</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D44499C2-7834-483C-B65A-08F96EF1CB7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4743450" y="85724"/>
+          <a:ext cx="5124450" cy="9401175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>调试配置：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"version": "0.2.0",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"configurations": [</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"name": "Run hello.js",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"type": "node",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"request": "launch",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"program": "${workspaceRoot}/mysql_demo.js",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"stopOnEntry": false,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"args": [],</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"cwd": "${workspaceRoot}",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"preLaunchTask": null,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"runtimeExecutable": null,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"runtimeArgs": [</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"--nolazy"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>],</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"env": {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"NODE_ENV": "development"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>npm start:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"name": "hello-koa2",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"version": "1.0.0",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"description": "Hello Koa 2 example with async",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"main": "app.js",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"scripts": {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"start": "node app.js"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"keywords": [</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"koa",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"async"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>],</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"author": "Michael Liao",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"license": "Apache-2.0",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"repository": {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"type": "git",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"url": "https://github.com/michaelliao/learn-javascript.git"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"dependencies": {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"koa": "2.0.0"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -595,7 +1399,87 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
             <a:t>进程</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>__dirname  //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>当前文件夹名字；</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>__filename  // </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>当前文件名字；</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>fs.readdirSync(path) // </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>获取路径下所有文件</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2981,6 +3865,3054 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>%}</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67C04075-7C42-4956-AC39-2DF37CDCE152}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="200025"/>
+          <a:ext cx="6181725" cy="6743700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Pets.findAll()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>.then(funtion(pets){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>       console.log(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>`${pet.id}: ${pet.name}`</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>}).catch(funtion(err){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>})</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>(async ()=&gt;{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>      var data =  await Pet.findAll();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>})();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>await </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>必须在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>async </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>函数中调用；</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>var test(){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>       return new Promise(funtion(resolve</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> reject</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>                  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>})</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>function* main(){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>      yiled </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19048</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66CD1D67-BBE6-4554-96D2-C7358470B6B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="200023"/>
+          <a:ext cx="6219825" cy="16040102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>grant</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>all</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>privileges</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>on</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> test.* </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>to</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'www'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>@</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'%'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> identified </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>by</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'www'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>use test;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>create</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>table</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> pets ( id </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>varchar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>50</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>not</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>null</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>, name </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>varchar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>100</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>not</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>null</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>, gender bool </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>not</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>null</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>, birth </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>varchar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>not</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>null</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>, createdAt bigint </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>not</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>null</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>, updatedAt bigint </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>not</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>null</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>, version bigint </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>not</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>null</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>primary</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>key</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> (id) ) engine=innodb;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1./grant </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>命令创建</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>MySQL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的用户名和口令， 均为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>'www', </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>并且赋予操作</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>test</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>数据的所有权限；</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2./ use </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>切换当前数据库为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>test;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>3./</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>创建表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>sequelize </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>查询：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>// </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>创建</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sequelize </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>实例</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>var sequelize = new Sequelize(config.database, config.username, config.password,{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>host: config.host,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dialect: 'mysql',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pool: {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>max: 5,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>min: 0,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>idle: 30000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>});</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>// </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>建模</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>var Pet = sequelize.define('pet',{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>id: {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>type: Sequelize.STRING(50),</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>primaryKey: true</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>name: Sequelize.STRING(100),</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gender: Sequelize.BOOLEAN,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>birth: Sequelize.STRING(10),</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>createdAt: Sequelize.BIGINT,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>updatedAt: Sequelize.BIGINT,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>version: Sequelize.BIGINT</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>},{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>timestamps: false</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>});</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>增加：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Pet.create({</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>id: 'g-' + now,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>name: 'Gaffey',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gender: false,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>birth: '2017-09-23',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>createdAt: now,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>updatedAt:now,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>version: 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}).then(function(p){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>console.log('created' + JSON.stringify(p));</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}).catch(function(err){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>console.log('failed' + err);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>});</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>// </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>查询数据</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(async ()=&gt;{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>var pets = await Pet.findAll({</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>where: {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>name: 'Gaffey'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>});</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>console.log(`find ${pets.length} pets:`);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>for(var i of pets){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>console.log(JSON.stringify(i));</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>})();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>// </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>更新数据</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/** </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(async ()=&gt;{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>var p = await Pet.findAll({where:{name: 'Gaffey'}});</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>p[0].gender = true;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>p[0].version++;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>await p[0].save();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>})();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>*/</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>// </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>删除数据</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/** </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(async ()=&gt;{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>var p = await Pet.findAll({where: {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>name: 'Gaffey'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}});</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>await p[0].destroy();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>})();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>*/</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD44005C-39D4-4C2C-A8FC-089A7EF1479F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6610351" y="209550"/>
+          <a:ext cx="7258050" cy="8305800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>我们把通过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sequelize.define()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>返回的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Pet</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>称为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Model</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，它表示一个数据模型。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>我们把通过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Pet.findAll()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>返回的一个或一组对象称为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Model</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>实例，每个实例都可以直接通过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>JSON.stringify</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>序列化为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>JSON</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>字符串。但是它们和普通</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>JSON</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>对象相比，多了一些由</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Sequelize</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>添加的方法，比如</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>save()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>destroy()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>。调用这些方法我们可以执行更新或者删除操作。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>所以，使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Sequelize</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>操作数据库的一般步骤就是：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>首先，通过某个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Model</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>对象的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>findAll()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>方法获取实例；</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>如果要更新实例，先对实例属性赋新值，再调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>save()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>方法；</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>如果要删除实例，直接调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>destroy()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>方法。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>注意</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>findAll()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>方法可以接收</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>where</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>order</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>这些参数，这和将要生成的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SQL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>语句是对应的。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>我们首先要定义的就是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Model</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>存放的文件夹必须在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>models</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>内，并且以</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Model</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>名字命名，例如：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>Pet.js</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>User.js</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>等等</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Mode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>l </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>规范：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>统一主键，名称必须是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>id</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>，类型必须是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>STRING(50);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>主键可以自己制定，也可以由框架自动生成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>如果为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>null </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>或 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>undefined)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>；</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>所有字段默认为 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>NOT NULL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>， 除非显示指定</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>4. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>同一</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>timestamp </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>机制</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>每个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Model</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>必须有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>createdAt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>updatedAt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>version</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>分别记录创建时间、修改时间和版本号。其中，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>createdAt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>updatedAt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>以</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>BIGINT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>存储时间戳，最大的好处是无需处理时区，排序方便。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>version</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>每次修改时自增。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3267,12 +7199,29 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE00543E-F958-4569-AD47-1F5E9C8974BA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326BB6E1-3151-4803-888C-0E1C487B16FD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3335,7 +7284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930D6937-40D2-445C-9E11-585D74709947}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
@@ -3363,4 +7312,37 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1071B15-04D6-42B6-BF5F-E4C07321DC1C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB1DA4E-D8A8-4E70-BB3F-52ADD5441AC4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N71" sqref="N71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>